--- a/public/template/Flat Charge.xlsx
+++ b/public/template/Flat Charge.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA5C29-B21F-48A9-BCF7-A835FCE941C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1900EA-1B28-43DE-8923-9000DEFECE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6CF3A24-82D6-43AF-941E-9998515D2E5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6CF3A24-82D6-43AF-941E-9998515D2E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product</t>
   </si>
@@ -47,46 +48,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Additional Service by hours</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0BA5021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Termination + Service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMS5*13;外勤taxi fee118</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>406T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consulting and Support Service_hardcopy by EMS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>G=61760010*C=8161101A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Start Month</t>
@@ -97,14 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>406T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>First Line Contact Service_call</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,53 +66,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial Services</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8023002C</t>
-  </si>
-  <si>
-    <t>8023002C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GL Accounting Services</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period End Closing and Reporting Services</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd party Customer Master Data</t>
-  </si>
-  <si>
-    <t>Extra Small - Commercial Services Package</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting &amp; Closing Package_FP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Cost Center</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Company code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX Declaration depend on local Tax Authority requiremnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>G=61760030*C=8161701E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>G=61760030*C=9010001G</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,18 +138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,41 +196,8 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,26 +534,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614FDBE4-F36A-41A3-9BB6-DC3BADBA1CC3}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="51.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="9" width="13.375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -710,24 +576,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>5547</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>80920016</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="7">
         <v>4501000000</v>
       </c>
@@ -739,15 +605,15 @@
         <v>202205</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>5547</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="8">
         <v>1000</v>
       </c>
@@ -759,285 +625,6 @@
         <v>202201</v>
       </c>
       <c r="I3" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5547</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10">
-        <v>12345678</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4501000000</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I4" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5547</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4501000000</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I5" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5547</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <v>80200022</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2000.1</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18">
-        <v>202201</v>
-      </c>
-      <c r="I6" s="18">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5547</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13">
-        <v>-1000.01</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="14">
-        <v>202201</v>
-      </c>
-      <c r="I7" s="14">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12">
-        <v>5547</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>202201</v>
-      </c>
-      <c r="I8" s="14">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16">
-        <v>4501000000</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I9" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="8">
-        <v>1001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>9780001000</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4638</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="8">
-        <v>3003</v>
-      </c>
-      <c r="F11" s="16">
-        <v>4501000000</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I11" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4618</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="8">
-        <v>4004</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4501000000</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I12" s="7">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15">
-        <v>4618</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8">
-        <v>1001</v>
-      </c>
-      <c r="F13" s="17">
-        <v>9780717368</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18">
-        <v>202201</v>
-      </c>
-      <c r="I13" s="18">
-        <v>202205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4618</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13">
-        <v>3003</v>
-      </c>
-      <c r="F14" s="11">
-        <v>9780718876</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="14">
-        <v>202201</v>
-      </c>
-      <c r="I14" s="14">
         <v>202205</v>
       </c>
     </row>
@@ -1049,12 +636,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,15 +774,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88CB6CF9-BB6B-427D-A23D-41452D95B519}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AECC09B4-03F9-4DF2-B98F-BBFFB2014009}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1222,10 +810,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AECC09B4-03F9-4DF2-B98F-BBFFB2014009}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88CB6CF9-BB6B-427D-A23D-41452D95B519}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>